--- a/store/layout/report/Balance_Items.xlsx
+++ b/store/layout/report/Balance_Items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>Category</t>
   </si>
@@ -50,22 +50,151 @@
     <t>Stock Price</t>
   </si>
   <si>
-    <t>SINGLE NEEDLE M/C</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EADGE CUTTER KNIFE SET</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>PCS</t>
-  </si>
-  <si>
-    <t>Eadge Cutter KNIFE SET : N/A</t>
-  </si>
-  <si>
-    <t>SET</t>
+    <t>All Purchases Item</t>
+  </si>
+  <si>
+    <t>Gliter Gel pen</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>pcs</t>
+  </si>
+  <si>
+    <t>Gliter Pen</t>
+  </si>
+  <si>
+    <t>dozen</t>
+  </si>
+  <si>
+    <t>Magnet Pen</t>
+  </si>
+  <si>
+    <t>Pen Drive</t>
+  </si>
+  <si>
+    <t>Pilot Pen -Urushi Japan</t>
+  </si>
+  <si>
+    <t>Soap Dispenser For Cleaner.</t>
+  </si>
+  <si>
+    <t>Sanitary Item</t>
+  </si>
+  <si>
+    <t>Water Dispenser Heter Tank</t>
+  </si>
+  <si>
+    <t>Stationary</t>
+  </si>
+  <si>
+    <t>Ball Pen (Black)</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Ball Pen (rad)</t>
+  </si>
+  <si>
+    <t>Ball Pen Green</t>
+  </si>
+  <si>
+    <t>Fluid Pen</t>
+  </si>
+  <si>
+    <t>Gel Pen</t>
+  </si>
+  <si>
+    <t>Gel Pen (Blue)</t>
+  </si>
+  <si>
+    <t>Gel Pen (Red)</t>
+  </si>
+  <si>
+    <t>18/20</t>
+  </si>
+  <si>
+    <t>Gel Pen Green</t>
+  </si>
+  <si>
+    <t>High Light Pen (Green)</t>
+  </si>
+  <si>
+    <t>High light Pen (Orange)</t>
+  </si>
+  <si>
+    <t>High Light Pen (Yellow)</t>
+  </si>
+  <si>
+    <t>Lead pencil</t>
+  </si>
+  <si>
+    <t>Lead Penil box</t>
+  </si>
+  <si>
+    <t>magic pen</t>
+  </si>
+  <si>
+    <t>Pen Holder</t>
+  </si>
+  <si>
+    <t>Pencil Shapner Big</t>
+  </si>
+  <si>
+    <t>Pilot pen v5</t>
+  </si>
+  <si>
+    <t>Scotch Tape Dispenser</t>
+  </si>
+  <si>
+    <t>Sharpener</t>
+  </si>
+  <si>
+    <t>Signatur pen Green</t>
+  </si>
+  <si>
+    <t>Signature Pen (Black)</t>
+  </si>
+  <si>
+    <t>Signature Pen(Blue)</t>
+  </si>
+  <si>
+    <t>Signature Pen(Red)</t>
+  </si>
+  <si>
+    <t>Stitch Opener Small</t>
+  </si>
+  <si>
+    <t>Test Good Pen (Black)</t>
+  </si>
+  <si>
+    <t>Test Good Pen (Blue)</t>
+  </si>
+  <si>
+    <t>White Pencil/Glass Pencil</t>
+  </si>
+  <si>
+    <t>Wooden Pencil</t>
+  </si>
+  <si>
+    <t>Tecnical Item</t>
+  </si>
+  <si>
+    <t>Pencil Battery</t>
+  </si>
+  <si>
+    <t>Pencil Battery Clock(Maxell)</t>
+  </si>
+  <si>
+    <t>Pencil Battery Remot</t>
+  </si>
+  <si>
+    <t>Remort Pencil Battery (Maxell)</t>
+  </si>
+  <si>
+    <t>set</t>
   </si>
 </sst>
 </file>
@@ -405,7 +534,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +591,7 @@
         <v>14</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -497,25 +626,1320 @@
         <v>16</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>130.0</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>150.0</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>1500.0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.0</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>600.0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>54000.0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>580.0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>1600.0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>5.0</v>
+      </c>
+      <c r="F9">
+        <v>356</v>
+      </c>
+      <c r="G9">
+        <v>1780.0</v>
+      </c>
+      <c r="H9">
+        <v>14</v>
+      </c>
+      <c r="I9">
+        <v>70.0</v>
+      </c>
+      <c r="J9">
+        <v>342</v>
+      </c>
+      <c r="K9">
+        <v>1710.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>5.0</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>60.0</v>
+      </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>60.0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>4.5</v>
+      </c>
+      <c r="F11">
+        <v>47</v>
+      </c>
+      <c r="G11">
+        <v>211.5</v>
+      </c>
+      <c r="H11">
+        <v>47</v>
+      </c>
+      <c r="I11">
+        <v>211.5</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>116.0</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>812.0</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>812.0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>9.0</v>
+      </c>
+      <c r="F13">
         <v>9</v>
       </c>
-      <c r="G3">
-        <v>0.0</v>
-      </c>
-      <c r="H3">
+      <c r="G13">
+        <v>81.0</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>72.0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>15.0</v>
+      </c>
+      <c r="F14">
+        <v>76</v>
+      </c>
+      <c r="G14">
+        <v>1140.0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.0</v>
+      </c>
+      <c r="J14">
+        <v>76</v>
+      </c>
+      <c r="K14">
+        <v>1140.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>15.0</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>60.0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0.0</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>15.0</v>
+      </c>
+      <c r="F16">
+        <v>35</v>
+      </c>
+      <c r="G16">
+        <v>525.0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0.0</v>
+      </c>
+      <c r="J16">
+        <v>35</v>
+      </c>
+      <c r="K16">
+        <v>525.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>34.0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0.0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0.0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>34.0</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>204.0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.0</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>204.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>34.0</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>680.0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0.0</v>
+      </c>
+      <c r="J19">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>680.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>50.0</v>
+      </c>
+      <c r="F20">
+        <v>91</v>
+      </c>
+      <c r="G20">
+        <v>4550.0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0.0</v>
+      </c>
+      <c r="J20">
+        <v>91</v>
+      </c>
+      <c r="K20">
+        <v>4550.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>50.0</v>
+      </c>
+      <c r="F21">
+        <v>91</v>
+      </c>
+      <c r="G21">
+        <v>4550.0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0.0</v>
+      </c>
+      <c r="J21">
+        <v>91</v>
+      </c>
+      <c r="K21">
+        <v>4550.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>40.0</v>
+      </c>
+      <c r="F22">
+        <v>47</v>
+      </c>
+      <c r="G22">
+        <v>1880.0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0.0</v>
+      </c>
+      <c r="J22">
+        <v>47</v>
+      </c>
+      <c r="K22">
+        <v>1880.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>100.0</v>
+      </c>
+      <c r="F23">
         <v>3</v>
       </c>
-      <c r="I3">
-        <v>0.0</v>
-      </c>
-      <c r="J3">
+      <c r="G23">
+        <v>300.0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0.0</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>850.0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0.0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0.0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>70.0</v>
+      </c>
+      <c r="F25">
         <v>6</v>
       </c>
-      <c r="K3">
-        <v>0.0</v>
+      <c r="G25">
+        <v>420.0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0.0</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <v>420.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>85.0</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <v>765.0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0.0</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="K26">
+        <v>765.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>4.0</v>
+      </c>
+      <c r="F27">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>44.0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0.0</v>
+      </c>
+      <c r="J27">
+        <v>11</v>
+      </c>
+      <c r="K27">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>4.0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0.0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0.0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>5.0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0.0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0.0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>4.0</v>
+      </c>
+      <c r="F30">
+        <v>150</v>
+      </c>
+      <c r="G30">
+        <v>600.0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0.0</v>
+      </c>
+      <c r="J30">
+        <v>150</v>
+      </c>
+      <c r="K30">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>4.0</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>16.0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0.0</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>10.0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0.0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0.0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>25.0</v>
+      </c>
+      <c r="F33">
+        <v>26</v>
+      </c>
+      <c r="G33">
+        <v>650.0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0.0</v>
+      </c>
+      <c r="J33">
+        <v>26</v>
+      </c>
+      <c r="K33">
+        <v>650.0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>25.0</v>
+      </c>
+      <c r="F34">
+        <v>61</v>
+      </c>
+      <c r="G34">
+        <v>1525.0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0.0</v>
+      </c>
+      <c r="J34">
+        <v>61</v>
+      </c>
+      <c r="K34">
+        <v>1525.0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>12.0</v>
+      </c>
+      <c r="F35">
+        <v>136</v>
+      </c>
+      <c r="G35">
+        <v>1632.0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0.0</v>
+      </c>
+      <c r="J35">
+        <v>136</v>
+      </c>
+      <c r="K35">
+        <v>1632.0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36">
+        <v>8.0</v>
+      </c>
+      <c r="F36">
+        <v>239</v>
+      </c>
+      <c r="G36">
+        <v>1912.0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0.0</v>
+      </c>
+      <c r="J36">
+        <v>239</v>
+      </c>
+      <c r="K36">
+        <v>1912.0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>15.0</v>
+      </c>
+      <c r="F37">
+        <v>27</v>
+      </c>
+      <c r="G37">
+        <v>405.0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0.0</v>
+      </c>
+      <c r="J37">
+        <v>27</v>
+      </c>
+      <c r="K37">
+        <v>405.0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>110.0</v>
+      </c>
+      <c r="F38">
+        <v>44</v>
+      </c>
+      <c r="G38">
+        <v>4840.0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0.0</v>
+      </c>
+      <c r="J38">
+        <v>44</v>
+      </c>
+      <c r="K38">
+        <v>4840.0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>14.0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0.0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0.0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40">
+        <v>220.0</v>
+      </c>
+      <c r="F40">
+        <v>42</v>
+      </c>
+      <c r="G40">
+        <v>9240.0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0.0</v>
+      </c>
+      <c r="J40">
+        <v>42</v>
+      </c>
+      <c r="K40">
+        <v>9240.0</v>
       </c>
     </row>
   </sheetData>
